--- a/data/trans_orig/P36B17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B17-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>166555</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>143965</v>
+        <v>144692</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>190250</v>
+        <v>192138</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2423727530261657</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2095004126602527</v>
+        <v>0.2105584424330178</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2768539450184087</v>
+        <v>0.2796022400085397</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>414</v>
@@ -762,19 +762,19 @@
         <v>211758</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>192185</v>
+        <v>191620</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>231328</v>
+        <v>232316</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2915031823511248</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2645593037613038</v>
+        <v>0.2637810548884066</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3184423395953326</v>
+        <v>0.3198021199847345</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>627</v>
@@ -783,19 +783,19 @@
         <v>378313</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>347283</v>
+        <v>349992</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>408293</v>
+        <v>409187</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2676200644641371</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.245669450124518</v>
+        <v>0.2475857577866928</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2888283148008877</v>
+        <v>0.2894601223674076</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>222123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195823</v>
+        <v>198894</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>248876</v>
+        <v>251824</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3232372580066152</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2849650876632746</v>
+        <v>0.2894340187773825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3621675038778259</v>
+        <v>0.3664579090014948</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>446</v>
@@ -833,19 +833,19 @@
         <v>268460</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>247384</v>
+        <v>246661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>290736</v>
+        <v>291582</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3695572882742804</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.340545109390136</v>
+        <v>0.3395490140017494</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.400222236478873</v>
+        <v>0.4013869402184079</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>690</v>
@@ -854,19 +854,19 @@
         <v>490583</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>457092</v>
+        <v>458508</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>524774</v>
+        <v>529895</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3470403520575335</v>
+        <v>0.3470403520575336</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3233484523978444</v>
+        <v>0.3243500590325899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3712274142382647</v>
+        <v>0.374849893954895</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>228918</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>200598</v>
+        <v>202041</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>255293</v>
+        <v>256101</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.333125470117031</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.291913362499211</v>
+        <v>0.2940134899183646</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3715056334913795</v>
+        <v>0.3726811328939412</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>306</v>
@@ -904,19 +904,19 @@
         <v>199721</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>179530</v>
+        <v>179053</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>220545</v>
+        <v>220878</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2749322553184689</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2471378927361813</v>
+        <v>0.2464810713093968</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3035987482571661</v>
+        <v>0.304057443158572</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>515</v>
@@ -925,19 +925,19 @@
         <v>428639</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>394109</v>
+        <v>395500</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>462563</v>
+        <v>463063</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3032209437820724</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2787940084225499</v>
+        <v>0.2797783317626438</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.327218427464627</v>
+        <v>0.3275722599105049</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>48335</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34292</v>
+        <v>35152</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69580</v>
+        <v>75134</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07033816448668546</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04990233538027624</v>
+        <v>0.05115328963310425</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1012539515757287</v>
+        <v>0.109336010091677</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -975,19 +975,19 @@
         <v>39835</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29300</v>
+        <v>29687</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53950</v>
+        <v>52413</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05483636742900792</v>
+        <v>0.05483636742900791</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04033323260681627</v>
+        <v>0.04086672485976245</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07426713647803493</v>
+        <v>0.07215028105642038</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -996,19 +996,19 @@
         <v>88170</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70726</v>
+        <v>68521</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114006</v>
+        <v>113260</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06237204850640873</v>
+        <v>0.06237204850640875</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05003178096280524</v>
+        <v>0.04847231491920155</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0806482398304279</v>
+        <v>0.0801203991006115</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>21252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12653</v>
+        <v>12104</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33361</v>
+        <v>33434</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03092635436350273</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01841274335271609</v>
+        <v>0.01761357490563929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04854712254349335</v>
+        <v>0.04865304766324272</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1046,19 +1046,19 @@
         <v>6662</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3729</v>
+        <v>3265</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12081</v>
+        <v>11831</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009170906627117991</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005132768976001187</v>
+        <v>0.004493976757597202</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01663107883242591</v>
+        <v>0.01628594013489573</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -1067,19 +1067,19 @@
         <v>27914</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18968</v>
+        <v>17766</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>41788</v>
+        <v>40153</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.0197465911898482</v>
+        <v>0.01974659118984821</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01341819057615871</v>
+        <v>0.0125674268041709</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02956114875305673</v>
+        <v>0.02840472138390736</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>233162</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>207157</v>
+        <v>206753</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>265752</v>
+        <v>265296</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2222884136629026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.197496380330106</v>
+        <v>0.197111340539474</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2533586898967528</v>
+        <v>0.2529241683079683</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>421</v>
@@ -1192,19 +1192,19 @@
         <v>267451</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>242771</v>
+        <v>244201</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>291882</v>
+        <v>293848</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2501126119613369</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2270332739251093</v>
+        <v>0.2283699953364955</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2729601656581855</v>
+        <v>0.274798268404224</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>670</v>
@@ -1213,19 +1213,19 @@
         <v>500613</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>462422</v>
+        <v>465405</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>539232</v>
+        <v>542421</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2363345222892478</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2183052196349191</v>
+        <v>0.2197131537121776</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2545663741992105</v>
+        <v>0.2560716931716145</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>321797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>287156</v>
+        <v>290482</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>357277</v>
+        <v>352865</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3067896569163286</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2737638878131125</v>
+        <v>0.2769351307637148</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.340615132840286</v>
+        <v>0.3364093282234615</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>588</v>
@@ -1263,19 +1263,19 @@
         <v>403637</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>374110</v>
+        <v>375514</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>432450</v>
+        <v>432185</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3774699138814564</v>
+        <v>0.3774699138814565</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3498573560038836</v>
+        <v>0.351170899302249</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4044155636512678</v>
+        <v>0.4041677627032554</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>904</v>
@@ -1284,19 +1284,19 @@
         <v>725433</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>685171</v>
+        <v>683987</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>766548</v>
+        <v>776113</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3424702021892555</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3234625498776674</v>
+        <v>0.3229036661829739</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3618798929800631</v>
+        <v>0.3663954347361917</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>391930</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>357368</v>
+        <v>358994</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>434037</v>
+        <v>428546</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3736517186098246</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3407016079983203</v>
+        <v>0.342252481212032</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4137949434954234</v>
+        <v>0.408560510916484</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>435</v>
@@ -1334,19 +1334,19 @@
         <v>339168</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>310901</v>
+        <v>311248</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>367813</v>
+        <v>369385</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.317181084773228</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2907464637473929</v>
+        <v>0.2910706134439475</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.343969082678872</v>
+        <v>0.345438494195387</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>750</v>
@@ -1355,19 +1355,19 @@
         <v>731098</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>687983</v>
+        <v>683619</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>777078</v>
+        <v>775595</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3451444226022326</v>
+        <v>0.3451444226022327</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3247903586657407</v>
+        <v>0.3227302276126557</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3668509503364869</v>
+        <v>0.3661510703017128</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>78154</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58211</v>
+        <v>59610</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100213</v>
+        <v>98471</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07450932428929137</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0554961199877184</v>
+        <v>0.05683049438885541</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09553969375178571</v>
+        <v>0.09387894129211583</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -1405,19 +1405,19 @@
         <v>43626</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32043</v>
+        <v>31974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58876</v>
+        <v>58646</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04079819869716721</v>
+        <v>0.04079819869716722</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02996551171616376</v>
+        <v>0.0299009763992464</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05505929886644362</v>
+        <v>0.05484400326896289</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -1426,19 +1426,19 @@
         <v>121780</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100335</v>
+        <v>100236</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>146071</v>
+        <v>147357</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05749139885242487</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04736742927381836</v>
+        <v>0.0473203816318862</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06895873492361859</v>
+        <v>0.0695658493384875</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>23874</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14371</v>
+        <v>14576</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38149</v>
+        <v>38575</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02276088652165287</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.013700386744227</v>
+        <v>0.01389582922275324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03636963367409247</v>
+        <v>0.03677648659859577</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -1476,19 +1476,19 @@
         <v>15439</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9459</v>
+        <v>9236</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25521</v>
+        <v>25817</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01443819068681132</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008845826230624498</v>
+        <v>0.008637191161786231</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02386649631193381</v>
+        <v>0.02414340432829613</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -1497,19 +1497,19 @@
         <v>39313</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28098</v>
+        <v>27537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54941</v>
+        <v>55318</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01855945406683912</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01326495226718864</v>
+        <v>0.01299999301332531</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02593731526622949</v>
+        <v>0.02611492176972432</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>216696</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>189732</v>
+        <v>190701</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>244734</v>
+        <v>245958</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2698334314704438</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2362572096869073</v>
+        <v>0.2374635391936596</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3047467111584167</v>
+        <v>0.3062708510016681</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>325</v>
@@ -1622,19 +1622,19 @@
         <v>233330</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>208944</v>
+        <v>209724</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>256803</v>
+        <v>257806</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.287260803360964</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2572386093658255</v>
+        <v>0.2581984858757803</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3161585689381003</v>
+        <v>0.3173935940649814</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>527</v>
@@ -1643,19 +1643,19 @@
         <v>450026</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>416860</v>
+        <v>414016</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>486596</v>
+        <v>487348</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.278596668377405</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2580644697623261</v>
+        <v>0.2563040393021287</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3012359331128475</v>
+        <v>0.3017012812483847</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>273215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>245467</v>
+        <v>243180</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>304951</v>
+        <v>304840</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3402122713370406</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3056593432658023</v>
+        <v>0.3028118958197079</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3797304578432736</v>
+        <v>0.379591902879278</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>358</v>
@@ -1693,19 +1693,19 @@
         <v>273143</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>247684</v>
+        <v>246736</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>301001</v>
+        <v>297782</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3362762943237715</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3049328431361971</v>
+        <v>0.30376548327303</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3705726445205207</v>
+        <v>0.3666094834229475</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>587</v>
@@ -1714,19 +1714,19 @@
         <v>546359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>506732</v>
+        <v>509224</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>587638</v>
+        <v>589276</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3382330917312853</v>
+        <v>0.3382330917312854</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3137016387308592</v>
+        <v>0.3152439038862196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3637878175830851</v>
+        <v>0.3648015923305327</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>254664</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>223939</v>
+        <v>222505</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>284748</v>
+        <v>285277</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3171115264951722</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2788529638646974</v>
+        <v>0.2770664992858224</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3545723747325736</v>
+        <v>0.3552320318037849</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>301</v>
@@ -1764,19 +1764,19 @@
         <v>252391</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>224797</v>
+        <v>228105</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>278457</v>
+        <v>280878</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3107274355515673</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2767548339544883</v>
+        <v>0.2808280919479685</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3428175968286918</v>
+        <v>0.3457987957738268</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>505</v>
@@ -1785,19 +1785,19 @@
         <v>507055</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>467081</v>
+        <v>468168</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>548672</v>
+        <v>550442</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3139013292419176</v>
+        <v>0.3139013292419175</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2891548354351245</v>
+        <v>0.2898279469390134</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3396650305069236</v>
+        <v>0.3407606961973493</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>49796</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34348</v>
+        <v>34658</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69722</v>
+        <v>69394</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06200685958998623</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04277078485444242</v>
+        <v>0.04315616678371076</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08681955223865527</v>
+        <v>0.08640998600054016</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -1835,19 +1835,19 @@
         <v>40576</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29390</v>
+        <v>30908</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52989</v>
+        <v>53426</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04995403903002656</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03618349430642501</v>
+        <v>0.03805147650830046</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06523606953211541</v>
+        <v>0.06577444051471494</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -1856,19 +1856,19 @@
         <v>90372</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71889</v>
+        <v>71608</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115366</v>
+        <v>113247</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05594617972227348</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04450424344325656</v>
+        <v>0.04433012425994626</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07141931697018464</v>
+        <v>0.07010734505053745</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>8702</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2523</v>
+        <v>2784</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23456</v>
+        <v>21798</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01083591110735712</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003141494733839006</v>
+        <v>0.003466090327760979</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02920732149006585</v>
+        <v>0.02714291258636928</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -1906,19 +1906,19 @@
         <v>12819</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7278</v>
+        <v>7114</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22059</v>
+        <v>22047</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01578142773367055</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008960110143490196</v>
+        <v>0.008758364145522019</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02715794422038101</v>
+        <v>0.0271431037578709</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -1927,19 +1927,19 @@
         <v>21521</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12500</v>
+        <v>12516</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35972</v>
+        <v>36083</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01332273092711861</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007738419006700911</v>
+        <v>0.007748335314554294</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02226929171551149</v>
+        <v>0.02233796545335804</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>299677</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>268788</v>
+        <v>268999</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>327530</v>
+        <v>332976</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3029434008510463</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2717174352753911</v>
+        <v>0.27193093225306</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3311006425900692</v>
+        <v>0.3366052522429783</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>583</v>
@@ -2052,19 +2052,19 @@
         <v>387409</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>360662</v>
+        <v>360150</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>416089</v>
+        <v>414108</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3470408065207501</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3230810746871119</v>
+        <v>0.322622877585458</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3727323854739099</v>
+        <v>0.3709580618032007</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>913</v>
@@ -2073,19 +2073,19 @@
         <v>687085</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>642173</v>
+        <v>649889</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>728260</v>
+        <v>730500</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.326323094221549</v>
+        <v>0.3263230942215491</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3049923398813892</v>
+        <v>0.3086569590807897</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3458784171623003</v>
+        <v>0.346942469945104</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>312017</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>282329</v>
+        <v>282827</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>341443</v>
+        <v>340535</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3154184622761266</v>
+        <v>0.3154184622761267</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2854060348724774</v>
+        <v>0.2859104317310175</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3451645099341191</v>
+        <v>0.344247351493352</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>548</v>
@@ -2123,19 +2123,19 @@
         <v>385423</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>356637</v>
+        <v>357136</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>414133</v>
+        <v>415869</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3452620110367443</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3194751785750166</v>
+        <v>0.3199224531187468</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3709804080775744</v>
+        <v>0.3725356659058648</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>877</v>
@@ -2144,19 +2144,19 @@
         <v>697440</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>658282</v>
+        <v>656616</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>740401</v>
+        <v>737726</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3312410035008194</v>
+        <v>0.3312410035008195</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3126433633385436</v>
+        <v>0.3118522451367019</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3516445014942876</v>
+        <v>0.3503742877507504</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>272879</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>243823</v>
+        <v>242797</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>304134</v>
+        <v>304676</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2758535114608978</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2464807090390298</v>
+        <v>0.2454433234484647</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.307448887350558</v>
+        <v>0.3079973843605722</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>350</v>
@@ -2194,19 +2194,19 @@
         <v>271128</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>243620</v>
+        <v>246947</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>297669</v>
+        <v>298771</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2428767827969076</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2182350352574963</v>
+        <v>0.2212153406267539</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2666519784961849</v>
+        <v>0.2676391741286303</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>612</v>
@@ -2215,19 +2215,19 @@
         <v>544007</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>505344</v>
+        <v>504417</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>590243</v>
+        <v>582164</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2583698116192072</v>
+        <v>0.2583698116192073</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2400072121510852</v>
+        <v>0.2395667967130061</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2803290011097477</v>
+        <v>0.2764920563145042</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>70436</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51681</v>
+        <v>53524</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>91897</v>
+        <v>90091</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.07120330426138048</v>
+        <v>0.0712033042613805</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05224405437244115</v>
+        <v>0.05410736145406905</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09289826979341739</v>
+        <v>0.09107285635424622</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -2265,19 +2265,19 @@
         <v>56362</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>43193</v>
+        <v>42657</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>75193</v>
+        <v>72624</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05048951239289225</v>
+        <v>0.05048951239289226</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0386922910494123</v>
+        <v>0.03821182662431085</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06735767351559732</v>
+        <v>0.06505703546674567</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>116</v>
@@ -2286,19 +2286,19 @@
         <v>126798</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>104319</v>
+        <v>104807</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>152497</v>
+        <v>153009</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06022120463282146</v>
+        <v>0.0602212046328215</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04954510424827546</v>
+        <v>0.04977671760362123</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07242646455090662</v>
+        <v>0.07266989761184781</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>34208</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22886</v>
+        <v>22639</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48294</v>
+        <v>49698</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03458132115054872</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02313578305434769</v>
+        <v>0.02288551529792123</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04882093399035549</v>
+        <v>0.05024000962008597</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -2336,19 +2336,19 @@
         <v>15998</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8714</v>
+        <v>8990</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28092</v>
+        <v>28770</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.0143308872527059</v>
+        <v>0.01433088725270589</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007806366733489372</v>
+        <v>0.008053444871874817</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02516515219224386</v>
+        <v>0.02577182363732546</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>45</v>
@@ -2357,19 +2357,19 @@
         <v>50206</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>35942</v>
+        <v>35211</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>68913</v>
+        <v>67675</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0238448860256027</v>
+        <v>0.02384488602560271</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01707004878957513</v>
+        <v>0.01672323017554217</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03272934416169023</v>
+        <v>0.03214144165584698</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>916089</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>860080</v>
+        <v>864568</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>971206</v>
+        <v>974442</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2596337738213987</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2437598947117518</v>
+        <v>0.2450318233298069</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2752547048936717</v>
+        <v>0.2761718992263952</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1743</v>
@@ -2482,19 +2482,19 @@
         <v>1099948</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1054164</v>
+        <v>1055706</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1149122</v>
+        <v>1153713</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2953406504566055</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2830476325452499</v>
+        <v>0.28346147909583</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3085441238636218</v>
+        <v>0.3097769097432232</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2737</v>
@@ -2503,19 +2503,19 @@
         <v>2016037</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1942847</v>
+        <v>1947560</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2092344</v>
+        <v>2089709</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2779695516955311</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2678780874257577</v>
+        <v>0.2685279753154809</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2884907046536124</v>
+        <v>0.2881273984820615</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>1129153</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1071633</v>
+        <v>1068184</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1188115</v>
+        <v>1190440</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3200192243438889</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3037172001221254</v>
+        <v>0.3027396497378378</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3367298959626191</v>
+        <v>0.3373888610740842</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1940</v>
@@ -2553,19 +2553,19 @@
         <v>1330663</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1278881</v>
+        <v>1282646</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1386834</v>
+        <v>1388509</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3572885403051387</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3433851012568202</v>
+        <v>0.3443958133024838</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3723708313212833</v>
+        <v>0.3728206530981555</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3058</v>
@@ -2574,19 +2574,19 @@
         <v>2459816</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2379238</v>
+        <v>2379193</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2537879</v>
+        <v>2533834</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3391573277957192</v>
+        <v>0.3391573277957193</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3280473253799153</v>
+        <v>0.3280411736627454</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3499206542047343</v>
+        <v>0.3493628857018852</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>1148391</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1085940</v>
+        <v>1079971</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1213217</v>
+        <v>1216084</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.325471533224393</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.307771948338581</v>
+        <v>0.3060802988592747</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3438442034465036</v>
+        <v>0.3446569164018746</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1392</v>
@@ -2624,19 +2624,19 @@
         <v>1062408</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1011696</v>
+        <v>1008327</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1113125</v>
+        <v>1112775</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2852611745726528</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2716446122633556</v>
+        <v>0.2707399743784334</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2988786812713543</v>
+        <v>0.2987848170749672</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2382</v>
@@ -2645,19 +2645,19 @@
         <v>2210799</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2131440</v>
+        <v>2122391</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2297510</v>
+        <v>2295014</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3048231799111114</v>
+        <v>0.3048231799111115</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2938811616638131</v>
+        <v>0.2926335566300405</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3167787132504251</v>
+        <v>0.3164346645499578</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>246721</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>213267</v>
+        <v>214351</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>290072</v>
+        <v>287591</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.06992448198130206</v>
+        <v>0.06992448198130208</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06044309034121961</v>
+        <v>0.06075046889954769</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08221090670817305</v>
+        <v>0.08150772361184602</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>214</v>
@@ -2695,19 +2695,19 @@
         <v>180400</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>156605</v>
+        <v>156267</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>210341</v>
+        <v>209165</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.04843804332619727</v>
+        <v>0.04843804332619726</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04204921279646479</v>
+        <v>0.04195826456958254</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05647737176657187</v>
+        <v>0.05616169767781681</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>412</v>
@@ -2716,19 +2716,19 @@
         <v>427120</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>383579</v>
+        <v>383659</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>476666</v>
+        <v>472560</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.05889101718091899</v>
+        <v>0.05889101718091901</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05288751866950663</v>
+        <v>0.05289856561953755</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06572233205536662</v>
+        <v>0.06515618526834528</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>88037</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>66930</v>
+        <v>66516</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>115642</v>
+        <v>112765</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02495098662901734</v>
+        <v>0.02495098662901733</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0189689664542269</v>
+        <v>0.01885169971225846</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03277461169015598</v>
+        <v>0.03195945201876416</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>59</v>
@@ -2766,19 +2766,19 @@
         <v>50918</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37881</v>
+        <v>39626</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>68113</v>
+        <v>69008</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01367159133940578</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01017108363908563</v>
+        <v>0.01063977367441938</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01828875277586612</v>
+        <v>0.01852895651630613</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>130</v>
@@ -2787,19 +2787,19 @@
         <v>138954</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>112401</v>
+        <v>115052</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>166188</v>
+        <v>166811</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01915892341671909</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01549776097791962</v>
+        <v>0.01586326842331608</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02291391310482664</v>
+        <v>0.02299970073225559</v>
       </c>
     </row>
     <row r="33">
